--- a/target/classes/examples/废水无组织排放.xlsx
+++ b/target/classes/examples/废水无组织排放.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{EA1C07E0-808C-4D7F-A236-05D761DB1534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B931AF77-880C-444E-99C5-84A9364CD1A7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>年份</t>
-  </si>
-  <si>
-    <t>区县</t>
   </si>
   <si>
     <t>区县代码</t>
@@ -43,9 +41,6 @@
 ER(%)</t>
   </si>
   <si>
-    <t>米东区</t>
-  </si>
-  <si>
     <t>中国石油天然气股份
 有限公司乌鲁木齐石化分公司</t>
   </si>
@@ -81,63 +76,6 @@
   </si>
   <si>
     <t>1117140127</t>
-  </si>
-  <si>
-    <t>头屯河</t>
-  </si>
-  <si>
-    <t>29993951-3　</t>
-  </si>
-  <si>
-    <t>直接排放</t>
-  </si>
-  <si>
-    <t>1117140130</t>
-  </si>
-  <si>
-    <t>呼图壁县</t>
-  </si>
-  <si>
-    <t>新疆华晟新能源科技有限公司</t>
-  </si>
-  <si>
-    <t>07222693-0</t>
-  </si>
-  <si>
-    <t>隔油厌氧好氧砂滤</t>
-  </si>
-  <si>
-    <t>1117140126</t>
-  </si>
-  <si>
-    <t>新疆天之泽化工有限公司</t>
-  </si>
-  <si>
-    <t>06553658-6　</t>
-  </si>
-  <si>
-    <t>1117140128</t>
-  </si>
-  <si>
-    <t>新疆泽天石油化工有限公司</t>
-  </si>
-  <si>
-    <t>77606837-9　</t>
-  </si>
-  <si>
-    <t>炼油厂废水系统:坝堰</t>
-  </si>
-  <si>
-    <t>新疆中油化工集团有限公司</t>
-  </si>
-  <si>
-    <t>74523409-8</t>
-  </si>
-  <si>
-    <t>废水处理油水分离器</t>
-  </si>
-  <si>
-    <t>1117140118</t>
   </si>
   <si>
     <t>活动水平备注</t>
@@ -178,23 +116,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TJ-SCC</t>
+    <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乌市隆成实业有限公司</t>
+    <t>乌鲁木齐市米东区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>废水处理炼油厂废水系统:活性污泥池</t>
+    <t>新疆昌吉州呼图壁县工业园区大风化工区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三道坝工业区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动水平单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排放量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCC编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在功能区</t>
+  </si>
+  <si>
+    <t>商业区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +233,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -257,19 +265,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -318,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +371,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,6 +423,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -561,459 +615,540 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.47265625" customWidth="1"/>
+    <col min="2" max="2" width="5.734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.89453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.47265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="9.1015625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="40.26171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1015625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:23" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>2015</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2">
         <v>650109</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>87.700934000000004</v>
+      </c>
+      <c r="H2">
+        <v>43.980694</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2">
+        <v>4728562</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>87.700934000000004</v>
-      </c>
-      <c r="G2">
-        <v>43.980694</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2">
-        <v>4728562</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
+      <c r="B3">
         <v>2015</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3">
         <v>650109</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>87.700934000000004</v>
+      </c>
+      <c r="H3">
+        <v>43.980694</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>3485902</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>87.700934000000004</v>
-      </c>
-      <c r="G3">
-        <v>43.980694</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>3485902</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
+      <c r="B4">
         <v>2015</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>650109</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>87.700934000000004</v>
+      </c>
+      <c r="H4">
+        <v>43.980694</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>73883</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>87.700934000000004</v>
-      </c>
-      <c r="G4">
-        <v>43.980694</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4">
-        <v>73883</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
+      <c r="B5">
         <v>2015</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5">
         <v>650109</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>87.700934000000004</v>
+      </c>
+      <c r="H5">
+        <v>43.980694</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>180181</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="F5">
-        <v>87.700934000000004</v>
-      </c>
-      <c r="G5">
-        <v>43.980694</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>180181</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
+      <c r="B6">
         <v>2015</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
       </c>
       <c r="C6">
         <v>650109</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
         <v>87.700934000000004</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>43.980694</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6">
+      <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
         <v>6011375</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
+      <c r="L6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
         <v>2015</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
       <c r="C7">
         <v>650109</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>87.804458999999994</v>
+      </c>
+      <c r="H7">
+        <v>44.034678999999997</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <v>87.804458999999994</v>
-      </c>
-      <c r="G7">
-        <v>44.034678999999997</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7">
+      <c r="K7">
         <v>2000</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>2015</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>650106</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8">
-        <v>87.407257999999999</v>
-      </c>
-      <c r="G8">
-        <v>43.924030999999999</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8">
-        <v>4000</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>2015</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>652323</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="L7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9">
-        <v>86.966809999999995</v>
-      </c>
-      <c r="G9">
-        <v>44.171104999999997</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9">
-        <v>3650</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>2015</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>652323</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
-        <v>86.611249000000001</v>
-      </c>
-      <c r="G10">
-        <v>44.299512</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10">
-        <v>864000</v>
-      </c>
-      <c r="J10">
-        <v>0.98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>2015</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>650106</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11">
-        <v>87.379518000000004</v>
-      </c>
-      <c r="G11">
-        <v>43.867341000000003</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11">
-        <v>300000</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>2015</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>650106</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12">
-        <v>87.369361999999995</v>
-      </c>
-      <c r="G12">
-        <v>43.874805000000002</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12">
-        <v>200000</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>39</v>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1021,12 +1156,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/classes/examples/废水无组织排放.xlsx
+++ b/target/classes/examples/废水无组织排放.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{EA1C07E0-808C-4D7F-A236-05D761DB1534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B931AF77-880C-444E-99C5-84A9364CD1A7}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +34,6 @@
   </si>
   <si>
     <t>企业纬度</t>
-  </si>
-  <si>
-    <t>VOCs控制效率
-ER(%)</t>
   </si>
   <si>
     <t>中国石油天然气股份
@@ -190,12 +185,17 @@
     <t>商业区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>VOCs控制效率
+ER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,7 +265,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,11 +276,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -338,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,26 +374,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,23 +409,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,32 +584,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.47265625" customWidth="1"/>
-    <col min="2" max="2" width="5.734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="9.1015625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="40.26171875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1015625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="27">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -655,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -664,54 +633,54 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2015</v>
@@ -720,13 +689,13 @@
         <v>650109</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>87.700934000000004</v>
@@ -735,22 +704,22 @@
         <v>43.980694</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2">
         <v>4728562</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="1">
         <v>0</v>
@@ -780,9 +749,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2015</v>
@@ -791,13 +760,13 @@
         <v>650109</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>87.700934000000004</v>
@@ -806,22 +775,22 @@
         <v>43.980694</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3">
         <v>3485902</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -851,9 +820,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2015</v>
@@ -862,13 +831,13 @@
         <v>650109</v>
       </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>87.700934000000004</v>
@@ -877,22 +846,22 @@
         <v>43.980694</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4">
         <v>73883</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -922,9 +891,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2015</v>
@@ -933,13 +902,13 @@
         <v>650109</v>
       </c>
       <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>87.700934000000004</v>
@@ -948,22 +917,22 @@
         <v>43.980694</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5">
         <v>180181</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -993,9 +962,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2015</v>
@@ -1004,13 +973,13 @@
         <v>650109</v>
       </c>
       <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>87.700934000000004</v>
@@ -1019,22 +988,22 @@
         <v>43.980694</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6">
         <v>6011375</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -1064,9 +1033,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>2015</v>
@@ -1075,13 +1044,13 @@
         <v>650109</v>
       </c>
       <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7">
         <v>87.804458999999994</v>
@@ -1090,22 +1059,22 @@
         <v>44.034678999999997</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
         <v>2000</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -1143,12 +1112,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1156,12 +1125,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/classes/examples/废水无组织排放.xlsx
+++ b/target/classes/examples/废水无组织排放.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22607"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFB85B54-ACBD-48D0-A5EA-A40CEBB9B365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="13740"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="废弃无组织排放" sheetId="1" r:id="rId1"/>
+    <sheet name="说明" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -139,63 +139,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PM10</t>
+    <t>SCC编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在功能区</t>
+  </si>
+  <si>
+    <t>商业区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOCs控制效率ER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>PM25</t>
+    <t>PM25排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CO</t>
+    <t>CO排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>VOC</t>
+    <t>VOC排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">SO2 </t>
+    <t>SO2 排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>NOX</t>
+    <t>NOX排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>NH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OC</t>
+    <t>NH3排放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>BC</t>
+    <t>BC排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCC编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在功能区</t>
-  </si>
-  <si>
-    <t>商业区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOCs控制效率
-ER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,13 +276,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -341,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,9 +373,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,6 +425,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,101 +617,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.734375" customWidth="1"/>
+    <col min="2" max="2" width="5.734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.3671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1015625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.47265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.47265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1015625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -686,7 +720,7 @@
         <v>2015</v>
       </c>
       <c r="C2">
-        <v>650109</v>
+        <v>210101</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -704,7 +738,7 @@
         <v>43.980694</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -749,15 +783,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C3">
-        <v>650109</v>
+        <v>210102</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -775,7 +809,7 @@
         <v>43.980694</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -820,15 +854,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C4">
-        <v>650109</v>
+        <v>210103</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -846,7 +880,7 @@
         <v>43.980694</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -891,15 +925,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C5">
-        <v>650109</v>
+        <v>210104</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -917,7 +951,7 @@
         <v>43.980694</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -962,15 +996,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C6">
-        <v>650109</v>
+        <v>210105</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -988,7 +1022,7 @@
         <v>43.980694</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1033,15 +1067,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C7">
-        <v>650109</v>
+        <v>210106</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1059,7 +1093,7 @@
         <v>44.034678999999997</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -1112,25 +1146,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
